--- a/xlsx/Wikia_intext.xlsx
+++ b/xlsx/Wikia_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="400">
   <si>
     <t>Wikia</t>
   </si>
@@ -29,25 +29,25 @@
     <t>Wiki</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_Wikia</t>
+    <t>政策_政策_维基百科_Wikia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%A5%AD</t>
   </si>
   <si>
-    <t>創業</t>
+    <t>创业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>吉米·威爾士</t>
+    <t>吉米·威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%90%AA%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE</t>
   </si>
   <si>
-    <t>安琪拉·貝絲蕾</t>
+    <t>安琪拉·贝丝蕾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E8%BE%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>Wiki農場</t>
+    <t>Wiki农场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E5%93%81</t>
   </si>
   <si>
-    <t>藥品</t>
+    <t>药品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%99</t>
   </si>
   <si>
-    <t>煙</t>
+    <t>烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -89,19 +89,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E5%8D%9A</t>
   </si>
   <si>
-    <t>賭博</t>
+    <t>赌博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E9%9A%9B%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>星際大戰</t>
+    <t>星际大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wookieepedia</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%95%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>阿爾法記憶</t>
+    <t>阿尔法记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wowwiki</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>偽基百科</t>
+    <t>伪基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -179,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AA%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>伪基百科</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/LyricWiki</t>
   </si>
   <si>
@@ -191,13 +188,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典</t>
+    <t>香港网络大典</t>
   </si>
   <si>
     <t>http://evchk.wikia.com/wiki/%E9%A6%99%E6%B8%AF%E7%B6%B2%E7%B5%A1%E5%A4%A7%E5%85%B8</t>
   </si>
   <si>
-    <t>香港網絡大典#香港網絡大典撤離Wikia討論</t>
+    <t>香港网络大典#香港网络大典撤离Wikia讨论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Guardian</t>
@@ -245,31 +242,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>維基</t>
+    <t>维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%B6%89%E5%8F%8A%E5%88%A9%E7%9B%8A%E8%A1%9D%E7%AA%81%E7%9A%84%E7%B7%A8%E8%BC%AF</t>
   </si>
   <si>
-    <t>對維基百科涉及利益衝突的編輯</t>
+    <t>对维基百科涉及利益冲突的编辑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%89%B9%E8%A9%95</t>
   </si>
   <si>
-    <t>對維基百科的批評</t>
+    <t>对维基百科的批评</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E5%88%AA%E9%99%A4%E4%B8%BB%E7%BE%A9%E5%92%8C%E4%BF%9D%E7%95%99%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>維基百科的刪除主義和保留主義</t>
+    <t>维基百科的删除主义和保留主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9A%84%E6%80%A7%E5%88%A5%E5%81%8F%E8%AA%A4</t>
   </si>
   <si>
-    <t>維基百科的性別偏誤</t>
+    <t>维基百科的性别偏误</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Racial_bias_on_Wikipedia</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B2%E8%A3%81%E5%A7%94%E5%93%A1%E6%9C%83_(%E8%8B%B1%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91)</t>
   </si>
   <si>
-    <t>仲裁委員會 (英語維基百科)</t>
+    <t>仲裁委员会 (英语维基百科)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E8%BE%91%E6%9D%BE</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%84%9B%E5%8F%A4%E8%B9%9F</t>
   </si>
   <si>
-    <t>維基愛古蹟</t>
+    <t>维基爱古蹟</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Art%2BFeminism</t>
@@ -365,19 +362,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E8%82%B2%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基教育基金會</t>
+    <t>维基教育基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>維基媒體運動</t>
+    <t>维基媒体运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>維基媒體基金會</t>
+    <t>维基媒体基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93%E5%88%86%E4%BC%9A%E5%88%97%E8%A1%A8</t>
@@ -389,49 +386,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國維基媒體協會</t>
+    <t>德国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>法國維基媒體協會</t>
+    <t>法国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>義大利維基媒體協會</t>
+    <t>义大利维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>荷蘭維基媒體協會</t>
+    <t>荷兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>波蘭維基媒體協會</t>
+    <t>波兰维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>中華民國維基媒體協會</t>
+    <t>中华民国维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>香港維基媒體協會</t>
+    <t>香港维基媒体协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門維基媒體協會</t>
+    <t>澳门维基媒体协会</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Amical_Wikimedia</t>
@@ -449,55 +446,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E7%B6%AD%E5%9F%BA</t>
   </si>
   <si>
-    <t>元維基</t>
+    <t>元维基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%85%B1%E4%BA%AB%E8%B3%87%E6%BA%90</t>
   </si>
   <si>
-    <t>維基共享資源</t>
+    <t>维基共享资源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%B0%E8%81%9E</t>
   </si>
   <si>
-    <t>維基新聞</t>
+    <t>维基新闻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%AA%9E%E9%8C%84</t>
   </si>
   <si>
-    <t>維基語錄</t>
+    <t>维基语录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>維基物種</t>
+    <t>维基物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AD%A6%E9%99%A2</t>
@@ -509,25 +506,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9C%8B%E9%9A%9B%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>維基媒體國際會議</t>
+    <t>维基媒体国际会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87%E7%B6%AD%E5%9F%BA%E5%B9%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>中文維基年會</t>
+    <t>中文维基年会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%B4%9B%E6%9C%97%E7%B5%B2%C2%B7%E5%BE%B7%E4%BC%8D%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>弗洛朗絲·德伍阿爾</t>
+    <t>弗洛朗丝·德伍阿尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Oscar_van_Dillen</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%C2%B7%E5%8A%A0%E5%BE%B7%E7%B4%8D</t>
   </si>
   <si>
-    <t>蘇·加德納</t>
+    <t>苏·加德纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E6%B5%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>詹姆斯·海爾曼</t>
+    <t>詹姆斯·海尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E9%A9%AC%E8%B5%AB</t>
@@ -581,25 +578,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%90%89%E6%8B%89%C2%B7%E8%B2%9D%E7%B5%B2%E8%95%BE%C2%B7%E6%96%AF%E5%A1%94%E6%9E%97</t>
   </si>
   <si>
-    <t>安吉拉·貝絲蕾·斯塔林</t>
+    <t>安吉拉·贝丝蕾·斯塔林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E6%98%AD</t>
   </si>
   <si>
-    <t>時昭</t>
+    <t>时昭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%B1%E7%91%9C%E7%9C%9F</t>
   </si>
   <si>
-    <t>許瑜真</t>
+    <t>许瑜真</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E9%9C%86_(%E7%BB%B4%E5%9F%BA%E5%AA%92%E4%BD%93)</t>
@@ -611,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%90%98%E9%8A%98</t>
   </si>
   <si>
-    <t>王鐘銘</t>
+    <t>王钟铭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E7%A9%8E_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
-    <t>陳穎 (作家)</t>
+    <t>陈颖 (作家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%96%AF%E6%B1%80%C2%B7%E7%BA%B3%E6%99%AE</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%AC%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>提姆·謝爾</t>
+    <t>提姆·谢尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E6%96%AF%E8%AB%BE</t>
   </si>
   <si>
-    <t>麥可·斯諾</t>
+    <t>麦可·斯诺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mike_Godwin</t>
@@ -653,25 +650,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A1%9E%E7%88%BE%C2%B7%E5%93%88%E7%88%BE%E5%A1%94%E6%AF%94%E7%88%BE</t>
   </si>
   <si>
-    <t>巴塞爾·哈爾塔比爾</t>
+    <t>巴塞尔·哈尔塔比尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%88%E5%AE%89%E6%B2%BB</t>
   </si>
   <si>
-    <t>酈安治</t>
+    <t>郦安治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%BA%B7%E7%91%9E</t>
   </si>
   <si>
-    <t>麥康瑞</t>
+    <t>麦康瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E6%99%AE%E7%88%BE%E8%A5%BF%E6%96%90</t>
   </si>
   <si>
-    <t>西蒙·普爾西斐</t>
+    <t>西蒙·普尔西斐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%BC%A6%C2%B7%E6%96%AF%E6%B2%83%E8%8C%A8</t>
@@ -683,19 +680,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%9C%8D%E7%88%BE%C2%B7%E6%9F%AF%E6%96%AF%E7%99%BB%E6%9F%AF</t>
   </si>
   <si>
-    <t>伊霍爾·柯斯登柯</t>
+    <t>伊霍尔·柯斯登柯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%B3%B3</t>
   </si>
   <si>
-    <t>唐鳳</t>
+    <t>唐凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%89%B9%C2%B7%E6%B2%83%E7%88%BE%E4%BB%80</t>
   </si>
   <si>
-    <t>加特·沃爾什</t>
+    <t>加特·沃尔什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%B1%B3%C2%B7%E9%A9%AC%E8%92%82%E6%96%AF</t>
@@ -755,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>維基百科歷史</t>
+    <t>维基百科历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Bomis</t>
@@ -773,19 +770,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>維基百科標誌</t>
+    <t>维基百科标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>義大利語維基百科</t>
+    <t>义大利语维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8DSOPA%E5%92%8CPIPA%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>反SOPA和PIPA抗議</t>
+    <t>反SOPA和PIPA抗议</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Pemadaman_Wikipedia_bahasa_Inggris</t>
@@ -803,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%9F%83%E7%88%BE%E6%95%8D%E5%A5%A7%E7%89%B9%E8%BB%8D%E7%94%A8%E7%84%A1%E7%B7%9A%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>皮埃爾敍奧特軍用無線電台</t>
+    <t>皮埃尔敍奥特军用无线电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E4%B9%9F%E7%94%B3%E9%81%BA</t>
   </si>
   <si>
-    <t>維基百科也申遺</t>
+    <t>维基百科也申遗</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1Lib1Ref</t>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E7%9F%A5%E8%AD%98%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>維基百科知識引擎</t>
+    <t>维基百科知识引擎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Litigation_involving_the_Wikimedia_Foundation</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%AA%92%E9%AB%94%E5%9F%BA%E9%87%91%E6%9C%83%E6%8E%A7%E5%91%8A%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80%E6%A1%88</t>
   </si>
   <si>
-    <t>維基媒體基金會控告美國國家安全局案</t>
+    <t>维基媒体基金会控告美国国家安全局案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Wikipedia_controversies</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E6%9D%9C%E9%A6%AC89417-6%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>俄羅斯國家杜馬89417-6法案</t>
+    <t>俄罗斯国家杜马89417-6法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E5%B0%81%E9%94%81%E7%BB%B4%E5%9F%BA%E7%99%BE%E7%A7%91%E4%BA%8B%E4%BB%B6</t>
@@ -959,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%A1%86</t>
   </si>
   <si>
-    <t>資訊框</t>
+    <t>资讯框</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wikiwand</t>
@@ -971,7 +968,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%87%89%E7%94%A8%E7%A8%8B%E5%BC%8F</t>
   </si>
   <si>
-    <t>維基百科應用程式</t>
+    <t>维基百科应用程式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/QRpedia</t>
@@ -1031,13 +1028,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%A0%A1%E5%9C%92%E7%89%88</t>
   </si>
   <si>
-    <t>維基百科校園版</t>
+    <t>维基百科校园版</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%8E%83%E6%8F%8F%E5%99%A8</t>
   </si>
   <si>
-    <t>維基掃描器</t>
+    <t>维基扫描器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quadriga_(award)</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91%E6%9C%89%E9%97%9C%E7%9A%84%E9%9B%BB%E5%BD%B1%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>和維基百科有關的電影列表</t>
+    <t>和维基百科有关的电影列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Academic_studies_about_Wikipedia</t>
@@ -1217,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/Wiki%E7%B6%B2%E7%AB%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>Wiki網站列表</t>
+    <t>Wiki网站列表</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2339,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2397,10 +2394,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2426,10 +2423,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2484,10 +2481,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2513,10 +2510,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2542,10 +2539,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2571,10 +2568,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2600,10 +2597,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2629,10 +2626,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2658,10 +2655,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2687,10 +2684,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2716,10 +2713,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>60</v>
@@ -2745,10 +2742,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2774,10 +2771,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2803,10 +2800,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2832,10 +2829,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2861,10 +2858,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2890,10 +2887,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2919,10 +2916,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2948,10 +2945,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2977,10 +2974,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3006,10 +3003,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3035,10 +3032,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3064,10 +3061,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3093,10 +3090,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3122,10 +3119,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3151,10 +3148,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3180,10 +3177,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3209,10 +3206,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3238,10 +3235,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3267,10 +3264,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3296,10 +3293,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3325,10 +3322,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3354,10 +3351,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3383,10 +3380,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3412,10 +3409,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3441,10 +3438,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3470,10 +3467,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3499,10 +3496,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3528,10 +3525,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3557,10 +3554,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3586,10 +3583,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>7</v>
@@ -3615,10 +3612,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3644,10 +3641,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3673,10 +3670,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3702,10 +3699,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3731,10 +3728,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3760,10 +3757,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3789,10 +3786,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3818,10 +3815,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3847,10 +3844,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3876,10 +3873,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3905,10 +3902,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3934,10 +3931,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3963,10 +3960,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3992,10 +3989,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4021,10 +4018,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
         <v>165</v>
-      </c>
-      <c r="F85" t="s">
-        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4050,10 +4047,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4079,10 +4076,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" t="s">
         <v>169</v>
-      </c>
-      <c r="F87" t="s">
-        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4108,10 +4105,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
         <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4137,10 +4134,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>172</v>
+      </c>
+      <c r="F89" t="s">
         <v>173</v>
-      </c>
-      <c r="F89" t="s">
-        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4166,10 +4163,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>174</v>
+      </c>
+      <c r="F90" t="s">
         <v>175</v>
-      </c>
-      <c r="F90" t="s">
-        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4195,10 +4192,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4224,10 +4221,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4253,10 +4250,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4282,10 +4279,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4311,10 +4308,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4340,10 +4337,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4369,10 +4366,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4398,10 +4395,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4427,10 +4424,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4456,10 +4453,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4485,10 +4482,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4514,10 +4511,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4543,10 +4540,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4572,10 +4569,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4601,10 +4598,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4630,10 +4627,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4659,10 +4656,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4688,10 +4685,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4717,10 +4714,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4746,10 +4743,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4775,10 +4772,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4804,10 +4801,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4833,10 +4830,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4862,10 +4859,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4891,10 +4888,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4920,10 +4917,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4949,10 +4946,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4978,10 +4975,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5007,10 +5004,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5036,10 +5033,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5065,10 +5062,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5094,10 +5091,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5123,10 +5120,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5152,10 +5149,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5181,10 +5178,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5210,10 +5207,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5239,10 +5236,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5268,10 +5265,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5297,10 +5294,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5326,10 +5323,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>254</v>
+      </c>
+      <c r="F130" t="s">
         <v>255</v>
-      </c>
-      <c r="F130" t="s">
-        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5355,10 +5352,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>256</v>
+      </c>
+      <c r="F131" t="s">
         <v>257</v>
-      </c>
-      <c r="F131" t="s">
-        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5384,10 +5381,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>258</v>
+      </c>
+      <c r="F132" t="s">
         <v>259</v>
-      </c>
-      <c r="F132" t="s">
-        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5413,10 +5410,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5442,10 +5439,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5471,10 +5468,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5500,10 +5497,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5529,10 +5526,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5558,10 +5555,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5587,10 +5584,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5616,10 +5613,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5645,10 +5642,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5674,10 +5671,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5703,10 +5700,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5732,10 +5729,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5761,10 +5758,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5790,10 +5787,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5819,10 +5816,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5848,10 +5845,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5877,10 +5874,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5906,10 +5903,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5935,10 +5932,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5964,10 +5961,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5993,10 +5990,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6022,10 +6019,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>302</v>
+      </c>
+      <c r="F154" t="s">
         <v>303</v>
-      </c>
-      <c r="F154" t="s">
-        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6051,10 +6048,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>304</v>
+      </c>
+      <c r="F155" t="s">
         <v>305</v>
-      </c>
-      <c r="F155" t="s">
-        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6109,10 +6106,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6138,10 +6135,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6167,10 +6164,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6196,10 +6193,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6225,10 +6222,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6254,10 +6251,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6283,10 +6280,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6312,10 +6309,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6341,10 +6338,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6370,10 +6367,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6399,10 +6396,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6428,10 +6425,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6457,10 +6454,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6486,10 +6483,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6515,10 +6512,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6544,10 +6541,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6573,10 +6570,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6602,10 +6599,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6631,10 +6628,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6660,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6689,10 +6686,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6718,10 +6715,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6747,10 +6744,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6776,10 +6773,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6805,10 +6802,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6834,10 +6831,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6863,10 +6860,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6892,10 +6889,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6921,10 +6918,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -6950,10 +6947,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6979,10 +6976,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
         <v>367</v>
-      </c>
-      <c r="F187" t="s">
-        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7008,10 +7005,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" t="s">
         <v>369</v>
-      </c>
-      <c r="F188" t="s">
-        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7037,10 +7034,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
         <v>371</v>
-      </c>
-      <c r="F189" t="s">
-        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7066,10 +7063,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
         <v>373</v>
-      </c>
-      <c r="F190" t="s">
-        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7095,10 +7092,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>374</v>
+      </c>
+      <c r="F191" t="s">
         <v>375</v>
-      </c>
-      <c r="F191" t="s">
-        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7124,10 +7121,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
         <v>377</v>
-      </c>
-      <c r="F192" t="s">
-        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7153,10 +7150,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7182,10 +7179,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>380</v>
+      </c>
+      <c r="F194" t="s">
         <v>381</v>
-      </c>
-      <c r="F194" t="s">
-        <v>382</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7211,10 +7208,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>382</v>
+      </c>
+      <c r="F195" t="s">
         <v>383</v>
-      </c>
-      <c r="F195" t="s">
-        <v>384</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7240,10 +7237,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>384</v>
+      </c>
+      <c r="F196" t="s">
         <v>385</v>
-      </c>
-      <c r="F196" t="s">
-        <v>386</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7269,10 +7266,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
         <v>387</v>
-      </c>
-      <c r="F197" t="s">
-        <v>388</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7298,10 +7295,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
         <v>389</v>
-      </c>
-      <c r="F198" t="s">
-        <v>390</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7327,10 +7324,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
         <v>391</v>
-      </c>
-      <c r="F199" t="s">
-        <v>392</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7356,10 +7353,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
         <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>394</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7385,10 +7382,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
         <v>395</v>
-      </c>
-      <c r="F201" t="s">
-        <v>396</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7414,10 +7411,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" t="s">
         <v>397</v>
-      </c>
-      <c r="F202" t="s">
-        <v>398</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7443,10 +7440,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>398</v>
+      </c>
+      <c r="F203" t="s">
         <v>399</v>
-      </c>
-      <c r="F203" t="s">
-        <v>400</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
